--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,607 +425,1084 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>103</v>
+      </c>
+      <c r="C2" t="n">
+        <v>121</v>
+      </c>
+      <c r="D2" t="n">
+        <v>139</v>
+      </c>
+      <c r="E2" t="n">
+        <v>166</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-103</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-121</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-139</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-166</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="R2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>91</v>
+      </c>
+      <c r="C3" t="n">
+        <v>110</v>
+      </c>
+      <c r="D3" t="n">
+        <v>132</v>
+      </c>
+      <c r="E3" t="n">
+        <v>165</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-98.90109890109891</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-109</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-99.09090909090909</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-131</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-99.24242424242425</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-164</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-99.39393939393939</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>B0DGVBM73J</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B4" t="n">
+        <v>86</v>
+      </c>
+      <c r="C4" t="n">
+        <v>105</v>
+      </c>
+      <c r="D4" t="n">
+        <v>125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>156</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-62.7906976744186</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-73</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-69.52380952380952</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-74.40000000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-124</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-79.48717948717949</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>108</v>
+      </c>
+      <c r="D5" t="n">
+        <v>130</v>
+      </c>
+      <c r="E5" t="n">
+        <v>166</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-84</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-94.3820224719101</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-103</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-95.37037037037037</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-125</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-96.15384615384616</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-161</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-96.98795180722891</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>96</v>
+      </c>
+      <c r="C6" t="n">
+        <v>117</v>
+      </c>
+      <c r="D6" t="n">
+        <v>144</v>
+      </c>
+      <c r="E6" t="n">
+        <v>187</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-96</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-117</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-144</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-187</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>123</v>
+      </c>
+      <c r="D7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" t="n">
+        <v>195</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-84</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-84</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-107</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-86.99186991869918</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-134</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-89.33333333333333</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-179</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-91.7948717948718</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>28</v>
+      </c>
+      <c r="B8" t="n">
+        <v>112</v>
+      </c>
+      <c r="C8" t="n">
+        <v>137</v>
+      </c>
+      <c r="D8" t="n">
+        <v>171</v>
+      </c>
+      <c r="E8" t="n">
+        <v>225</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-84</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-109</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-79.56204379562044</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-143</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-83.62573099415205</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-197</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-87.55555555555556</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>108</v>
+      </c>
+      <c r="C9" t="n">
+        <v>132</v>
+      </c>
+      <c r="D9" t="n">
+        <v>165</v>
+      </c>
+      <c r="E9" t="n">
+        <v>218</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-108</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-132</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-165</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-218</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>95</v>
+      </c>
+      <c r="C10" t="n">
+        <v>116</v>
+      </c>
+      <c r="D10" t="n">
+        <v>143</v>
+      </c>
+      <c r="E10" t="n">
+        <v>185</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-116</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-143</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-185</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n">
         <v>103</v>
       </c>
-      <c r="E2" t="n">
-        <v>121</v>
-      </c>
-      <c r="F2" t="n">
-        <v>139</v>
-      </c>
-      <c r="G2" t="n">
-        <v>166</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="C11" t="n">
+        <v>126</v>
+      </c>
+      <c r="D11" t="n">
+        <v>157</v>
+      </c>
+      <c r="E11" t="n">
+        <v>207</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-77</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.75728155339806</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-79.36507936507937</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-131</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-83.43949044585987</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-181</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-87.43961352657004</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n">
+        <v>108</v>
+      </c>
+      <c r="C12" t="n">
+        <v>132</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164</v>
+      </c>
+      <c r="E12" t="n">
+        <v>217</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-114</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-86.36363636363636</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-146</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-89.02439024390245</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-199</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-91.70506912442397</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>B0DGVBM73J</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>50.40000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>91</v>
-      </c>
-      <c r="E3" t="n">
-        <v>110</v>
-      </c>
-      <c r="F3" t="n">
-        <v>132</v>
-      </c>
-      <c r="G3" t="n">
-        <v>165</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>116</v>
+      </c>
+      <c r="C13" t="n">
+        <v>141</v>
+      </c>
+      <c r="D13" t="n">
+        <v>177</v>
+      </c>
+      <c r="E13" t="n">
+        <v>236</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-116</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-141</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-177</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-236</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>B0DGVBM73J</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>86</v>
-      </c>
-      <c r="E4" t="n">
-        <v>105</v>
-      </c>
-      <c r="F4" t="n">
-        <v>125</v>
-      </c>
-      <c r="G4" t="n">
-        <v>156</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>114</v>
+      </c>
+      <c r="C14" t="n">
+        <v>140</v>
+      </c>
+      <c r="D14" t="n">
+        <v>174</v>
+      </c>
+      <c r="E14" t="n">
+        <v>231</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-112</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-98.24561403508771</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-138</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-98.57142857142858</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-172</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-98.85057471264368</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-229</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-99.13419913419914</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>B0DGVBM73J</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>89</v>
-      </c>
-      <c r="E5" t="n">
-        <v>108</v>
-      </c>
-      <c r="F5" t="n">
-        <v>130</v>
-      </c>
-      <c r="G5" t="n">
-        <v>166</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31</v>
+      </c>
+      <c r="B15" t="n">
+        <v>115</v>
+      </c>
+      <c r="C15" t="n">
+        <v>140</v>
+      </c>
+      <c r="D15" t="n">
+        <v>178</v>
+      </c>
+      <c r="E15" t="n">
+        <v>241</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-84</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-73.04347826086956</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-109</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-77.85714285714286</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-147</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-82.58426966292134</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-210</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-87.13692946058092</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>B0DGVBM73J</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" t="n">
-        <v>117</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>118</v>
+      </c>
+      <c r="C16" t="n">
         <v>144</v>
       </c>
-      <c r="G6" t="n">
-        <v>187</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="D16" t="n">
+        <v>186</v>
+      </c>
+      <c r="E16" t="n">
+        <v>257</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-95.76271186440678</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-139</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-96.52777777777779</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-181</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-97.31182795698925</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-252</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-98.0544747081712</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>111</v>
+      </c>
+      <c r="C17" t="n">
+        <v>136</v>
+      </c>
+      <c r="D17" t="n">
+        <v>173</v>
+      </c>
+      <c r="E17" t="n">
+        <v>232</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-111</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-136</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-173</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-232</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>B0DGVBM73J</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>123</v>
-      </c>
-      <c r="F7" t="n">
-        <v>150</v>
-      </c>
-      <c r="G7" t="n">
-        <v>195</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>112</v>
-      </c>
-      <c r="E8" t="n">
-        <v>137</v>
-      </c>
-      <c r="F8" t="n">
-        <v>171</v>
-      </c>
-      <c r="G8" t="n">
-        <v>225</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>57.50000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>108</v>
-      </c>
-      <c r="E9" t="n">
-        <v>132</v>
-      </c>
-      <c r="F9" t="n">
-        <v>165</v>
-      </c>
-      <c r="G9" t="n">
-        <v>218</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>47.90000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>95</v>
-      </c>
-      <c r="E10" t="n">
-        <v>116</v>
-      </c>
-      <c r="F10" t="n">
-        <v>143</v>
-      </c>
-      <c r="G10" t="n">
-        <v>185</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>103</v>
-      </c>
-      <c r="E11" t="n">
-        <v>126</v>
-      </c>
-      <c r="F11" t="n">
-        <v>157</v>
-      </c>
-      <c r="G11" t="n">
-        <v>207</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>108</v>
-      </c>
-      <c r="E12" t="n">
-        <v>132</v>
-      </c>
-      <c r="F12" t="n">
-        <v>164</v>
-      </c>
-      <c r="G12" t="n">
-        <v>217</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>116</v>
-      </c>
-      <c r="E13" t="n">
-        <v>141</v>
-      </c>
-      <c r="F13" t="n">
-        <v>177</v>
-      </c>
-      <c r="G13" t="n">
-        <v>236</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>67.10000000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>114</v>
-      </c>
-      <c r="E14" t="n">
-        <v>140</v>
-      </c>
-      <c r="F14" t="n">
-        <v>174</v>
-      </c>
-      <c r="G14" t="n">
-        <v>231</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>86</v>
-      </c>
-      <c r="D15" t="n">
-        <v>115</v>
-      </c>
-      <c r="E15" t="n">
-        <v>140</v>
-      </c>
-      <c r="F15" t="n">
-        <v>178</v>
-      </c>
-      <c r="G15" t="n">
-        <v>241</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>118</v>
-      </c>
-      <c r="E16" t="n">
-        <v>144</v>
-      </c>
-      <c r="F16" t="n">
-        <v>186</v>
-      </c>
-      <c r="G16" t="n">
-        <v>257</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="P17" t="n">
+        <v/>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>55</v>
-      </c>
-      <c r="D17" t="n">
-        <v>111</v>
-      </c>
-      <c r="E17" t="n">
-        <v>136</v>
-      </c>
-      <c r="F17" t="n">
-        <v>173</v>
-      </c>
-      <c r="G17" t="n">
-        <v>232</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="R17" t="n">
         <v/>
       </c>
     </row>
@@ -1152,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>164</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B2" t="n">
         <v>103</v>
@@ -531,28 +531,28 @@
         <v>166</v>
       </c>
       <c r="F2" t="n">
-        <v>-103</v>
+        <v>-18</v>
       </c>
       <c r="G2" t="n">
-        <v>-100</v>
+        <v>-17.47572815533981</v>
       </c>
       <c r="H2" t="n">
-        <v>-121</v>
+        <v>-36</v>
       </c>
       <c r="I2" t="n">
-        <v>-100</v>
+        <v>-29.75206611570248</v>
       </c>
       <c r="J2" t="n">
-        <v>-139</v>
+        <v>-54</v>
       </c>
       <c r="K2" t="n">
-        <v>-100</v>
+        <v>-38.84892086330935</v>
       </c>
       <c r="L2" t="n">
-        <v>-166</v>
+        <v>-81</v>
       </c>
       <c r="M2" t="n">
-        <v>-100</v>
+        <v>-48.79518072289157</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B3" t="n">
         <v>91</v>
@@ -593,28 +593,28 @@
         <v>165</v>
       </c>
       <c r="F3" t="n">
-        <v>-90</v>
+        <v>-14</v>
       </c>
       <c r="G3" t="n">
-        <v>-98.90109890109891</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="H3" t="n">
-        <v>-109</v>
+        <v>-33</v>
       </c>
       <c r="I3" t="n">
-        <v>-99.09090909090909</v>
+        <v>-30</v>
       </c>
       <c r="J3" t="n">
-        <v>-131</v>
+        <v>-55</v>
       </c>
       <c r="K3" t="n">
-        <v>-99.24242424242425</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L3" t="n">
-        <v>-164</v>
+        <v>-88</v>
       </c>
       <c r="M3" t="n">
-        <v>-99.39393939393939</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B4" t="n">
         <v>86</v>
@@ -655,28 +655,28 @@
         <v>156</v>
       </c>
       <c r="F4" t="n">
-        <v>-54</v>
+        <v>-12</v>
       </c>
       <c r="G4" t="n">
-        <v>-62.7906976744186</v>
+        <v>-13.95348837209302</v>
       </c>
       <c r="H4" t="n">
-        <v>-73</v>
+        <v>-31</v>
       </c>
       <c r="I4" t="n">
-        <v>-69.52380952380952</v>
+        <v>-29.52380952380953</v>
       </c>
       <c r="J4" t="n">
-        <v>-93</v>
+        <v>-51</v>
       </c>
       <c r="K4" t="n">
-        <v>-74.40000000000001</v>
+        <v>-40.8</v>
       </c>
       <c r="L4" t="n">
-        <v>-124</v>
+        <v>-82</v>
       </c>
       <c r="M4" t="n">
-        <v>-79.48717948717949</v>
+        <v>-52.56410256410257</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B5" t="n">
         <v>89</v>
@@ -717,28 +717,28 @@
         <v>166</v>
       </c>
       <c r="F5" t="n">
-        <v>-84</v>
+        <v>-13</v>
       </c>
       <c r="G5" t="n">
-        <v>-94.3820224719101</v>
+        <v>-14.60674157303371</v>
       </c>
       <c r="H5" t="n">
-        <v>-103</v>
+        <v>-32</v>
       </c>
       <c r="I5" t="n">
-        <v>-95.37037037037037</v>
+        <v>-29.62962962962963</v>
       </c>
       <c r="J5" t="n">
-        <v>-125</v>
+        <v>-54</v>
       </c>
       <c r="K5" t="n">
-        <v>-96.15384615384616</v>
+        <v>-41.53846153846154</v>
       </c>
       <c r="L5" t="n">
-        <v>-161</v>
+        <v>-90</v>
       </c>
       <c r="M5" t="n">
-        <v>-96.98795180722891</v>
+        <v>-54.21686746987952</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B6" t="n">
         <v>96</v>
@@ -779,28 +779,28 @@
         <v>187</v>
       </c>
       <c r="F6" t="n">
-        <v>-96</v>
+        <v>-14</v>
       </c>
       <c r="G6" t="n">
-        <v>-100</v>
+        <v>-14.58333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>-117</v>
+        <v>-35</v>
       </c>
       <c r="I6" t="n">
-        <v>-100</v>
+        <v>-29.91452991452991</v>
       </c>
       <c r="J6" t="n">
-        <v>-144</v>
+        <v>-62</v>
       </c>
       <c r="K6" t="n">
-        <v>-100</v>
+        <v>-43.05555555555556</v>
       </c>
       <c r="L6" t="n">
-        <v>-187</v>
+        <v>-105</v>
       </c>
       <c r="M6" t="n">
-        <v>-100</v>
+        <v>-56.14973262032086</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B7" t="n">
         <v>100</v>
@@ -841,28 +841,28 @@
         <v>195</v>
       </c>
       <c r="F7" t="n">
-        <v>-84</v>
+        <v>-14</v>
       </c>
       <c r="G7" t="n">
-        <v>-84</v>
+        <v>-14</v>
       </c>
       <c r="H7" t="n">
-        <v>-107</v>
+        <v>-37</v>
       </c>
       <c r="I7" t="n">
-        <v>-86.99186991869918</v>
+        <v>-30.08130081300813</v>
       </c>
       <c r="J7" t="n">
-        <v>-134</v>
+        <v>-64</v>
       </c>
       <c r="K7" t="n">
-        <v>-89.33333333333333</v>
+        <v>-42.66666666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>-179</v>
+        <v>-109</v>
       </c>
       <c r="M7" t="n">
-        <v>-91.7948717948718</v>
+        <v>-55.8974358974359</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B8" t="n">
         <v>112</v>
@@ -903,28 +903,28 @@
         <v>225</v>
       </c>
       <c r="F8" t="n">
-        <v>-84</v>
+        <v>-16</v>
       </c>
       <c r="G8" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-41</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-29.92700729927008</v>
+      </c>
+      <c r="J8" t="n">
         <v>-75</v>
       </c>
-      <c r="H8" t="n">
-        <v>-109</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-79.56204379562044</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-143</v>
-      </c>
       <c r="K8" t="n">
-        <v>-83.62573099415205</v>
+        <v>-43.85964912280701</v>
       </c>
       <c r="L8" t="n">
-        <v>-197</v>
+        <v>-129</v>
       </c>
       <c r="M8" t="n">
-        <v>-87.55555555555556</v>
+        <v>-57.33333333333334</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B9" t="n">
         <v>108</v>
@@ -965,28 +965,28 @@
         <v>218</v>
       </c>
       <c r="F9" t="n">
-        <v>-108</v>
+        <v>-16</v>
       </c>
       <c r="G9" t="n">
-        <v>-100</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="H9" t="n">
-        <v>-132</v>
+        <v>-40</v>
       </c>
       <c r="I9" t="n">
-        <v>-100</v>
+        <v>-30.3030303030303</v>
       </c>
       <c r="J9" t="n">
-        <v>-165</v>
+        <v>-73</v>
       </c>
       <c r="K9" t="n">
-        <v>-100</v>
+        <v>-44.24242424242424</v>
       </c>
       <c r="L9" t="n">
-        <v>-218</v>
+        <v>-126</v>
       </c>
       <c r="M9" t="n">
-        <v>-100</v>
+        <v>-57.79816513761467</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B10" t="n">
         <v>95</v>
@@ -1027,28 +1027,28 @@
         <v>185</v>
       </c>
       <c r="F10" t="n">
-        <v>-95</v>
+        <v>-14</v>
       </c>
       <c r="G10" t="n">
-        <v>-100</v>
+        <v>-14.73684210526316</v>
       </c>
       <c r="H10" t="n">
-        <v>-116</v>
+        <v>-35</v>
       </c>
       <c r="I10" t="n">
-        <v>-100</v>
+        <v>-30.17241379310345</v>
       </c>
       <c r="J10" t="n">
-        <v>-143</v>
+        <v>-62</v>
       </c>
       <c r="K10" t="n">
-        <v>-100</v>
+        <v>-43.35664335664335</v>
       </c>
       <c r="L10" t="n">
-        <v>-185</v>
+        <v>-104</v>
       </c>
       <c r="M10" t="n">
-        <v>-100</v>
+        <v>-56.21621621621622</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B11" t="n">
         <v>103</v>
@@ -1089,28 +1089,28 @@
         <v>207</v>
       </c>
       <c r="F11" t="n">
-        <v>-77</v>
+        <v>-15</v>
       </c>
       <c r="G11" t="n">
-        <v>-74.75728155339806</v>
+        <v>-14.5631067961165</v>
       </c>
       <c r="H11" t="n">
-        <v>-100</v>
+        <v>-38</v>
       </c>
       <c r="I11" t="n">
-        <v>-79.36507936507937</v>
+        <v>-30.15873015873016</v>
       </c>
       <c r="J11" t="n">
-        <v>-131</v>
+        <v>-69</v>
       </c>
       <c r="K11" t="n">
-        <v>-83.43949044585987</v>
+        <v>-43.94904458598726</v>
       </c>
       <c r="L11" t="n">
-        <v>-181</v>
+        <v>-119</v>
       </c>
       <c r="M11" t="n">
-        <v>-87.43961352657004</v>
+        <v>-57.48792270531401</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B12" t="n">
         <v>108</v>
@@ -1151,28 +1151,28 @@
         <v>217</v>
       </c>
       <c r="F12" t="n">
-        <v>-90</v>
+        <v>-16</v>
       </c>
       <c r="G12" t="n">
-        <v>-83.33333333333334</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="H12" t="n">
-        <v>-114</v>
+        <v>-40</v>
       </c>
       <c r="I12" t="n">
-        <v>-86.36363636363636</v>
+        <v>-30.3030303030303</v>
       </c>
       <c r="J12" t="n">
-        <v>-146</v>
+        <v>-72</v>
       </c>
       <c r="K12" t="n">
-        <v>-89.02439024390245</v>
+        <v>-43.90243902439025</v>
       </c>
       <c r="L12" t="n">
-        <v>-199</v>
+        <v>-125</v>
       </c>
       <c r="M12" t="n">
-        <v>-91.70506912442397</v>
+        <v>-57.6036866359447</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B13" t="n">
         <v>116</v>
@@ -1213,28 +1213,28 @@
         <v>236</v>
       </c>
       <c r="F13" t="n">
-        <v>-116</v>
+        <v>-17</v>
       </c>
       <c r="G13" t="n">
-        <v>-100</v>
+        <v>-14.6551724137931</v>
       </c>
       <c r="H13" t="n">
-        <v>-141</v>
+        <v>-42</v>
       </c>
       <c r="I13" t="n">
-        <v>-100</v>
+        <v>-29.78723404255319</v>
       </c>
       <c r="J13" t="n">
-        <v>-177</v>
+        <v>-78</v>
       </c>
       <c r="K13" t="n">
-        <v>-100</v>
+        <v>-44.06779661016949</v>
       </c>
       <c r="L13" t="n">
-        <v>-236</v>
+        <v>-137</v>
       </c>
       <c r="M13" t="n">
-        <v>-100</v>
+        <v>-58.05084745762712</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B14" t="n">
         <v>114</v>
@@ -1275,28 +1275,28 @@
         <v>231</v>
       </c>
       <c r="F14" t="n">
-        <v>-112</v>
+        <v>-16</v>
       </c>
       <c r="G14" t="n">
-        <v>-98.24561403508771</v>
+        <v>-14.03508771929824</v>
       </c>
       <c r="H14" t="n">
-        <v>-138</v>
+        <v>-42</v>
       </c>
       <c r="I14" t="n">
-        <v>-98.57142857142858</v>
+        <v>-30</v>
       </c>
       <c r="J14" t="n">
-        <v>-172</v>
+        <v>-76</v>
       </c>
       <c r="K14" t="n">
-        <v>-98.85057471264368</v>
+        <v>-43.67816091954023</v>
       </c>
       <c r="L14" t="n">
-        <v>-229</v>
+        <v>-133</v>
       </c>
       <c r="M14" t="n">
-        <v>-99.13419913419914</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B15" t="n">
         <v>115</v>
@@ -1337,28 +1337,28 @@
         <v>241</v>
       </c>
       <c r="F15" t="n">
-        <v>-84</v>
+        <v>-17</v>
       </c>
       <c r="G15" t="n">
-        <v>-73.04347826086956</v>
+        <v>-14.78260869565217</v>
       </c>
       <c r="H15" t="n">
-        <v>-109</v>
+        <v>-42</v>
       </c>
       <c r="I15" t="n">
-        <v>-77.85714285714286</v>
+        <v>-30</v>
       </c>
       <c r="J15" t="n">
-        <v>-147</v>
+        <v>-80</v>
       </c>
       <c r="K15" t="n">
-        <v>-82.58426966292134</v>
+        <v>-44.9438202247191</v>
       </c>
       <c r="L15" t="n">
-        <v>-210</v>
+        <v>-143</v>
       </c>
       <c r="M15" t="n">
-        <v>-87.13692946058092</v>
+        <v>-59.33609958506224</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B16" t="n">
         <v>118</v>
@@ -1399,28 +1399,28 @@
         <v>257</v>
       </c>
       <c r="F16" t="n">
-        <v>-113</v>
+        <v>-17</v>
       </c>
       <c r="G16" t="n">
-        <v>-95.76271186440678</v>
+        <v>-14.40677966101695</v>
       </c>
       <c r="H16" t="n">
-        <v>-139</v>
+        <v>-43</v>
       </c>
       <c r="I16" t="n">
-        <v>-96.52777777777779</v>
+        <v>-29.86111111111111</v>
       </c>
       <c r="J16" t="n">
-        <v>-181</v>
+        <v>-85</v>
       </c>
       <c r="K16" t="n">
-        <v>-97.31182795698925</v>
+        <v>-45.69892473118279</v>
       </c>
       <c r="L16" t="n">
-        <v>-252</v>
+        <v>-156</v>
       </c>
       <c r="M16" t="n">
-        <v>-98.0544747081712</v>
+        <v>-60.70038910505836</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B17" t="n">
         <v>111</v>
@@ -1461,28 +1461,28 @@
         <v>232</v>
       </c>
       <c r="F17" t="n">
-        <v>-111</v>
+        <v>-16</v>
       </c>
       <c r="G17" t="n">
-        <v>-100</v>
+        <v>-14.41441441441441</v>
       </c>
       <c r="H17" t="n">
-        <v>-136</v>
+        <v>-41</v>
       </c>
       <c r="I17" t="n">
-        <v>-100</v>
+        <v>-30.14705882352941</v>
       </c>
       <c r="J17" t="n">
-        <v>-173</v>
+        <v>-78</v>
       </c>
       <c r="K17" t="n">
-        <v>-100</v>
+        <v>-45.08670520231214</v>
       </c>
       <c r="L17" t="n">
-        <v>-232</v>
+        <v>-137</v>
       </c>
       <c r="M17" t="n">
-        <v>-100</v>
+        <v>-59.05172413793104</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>1420</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>668</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>312</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>87</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>151</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>145</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>156</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>173</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>47</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>174</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>161</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>182</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>213</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>49</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>182</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>167</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>191</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>228</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>168</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>154</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>177</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>213</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>90</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>181</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>164</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>190</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>231</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>47</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>170</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>153</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>179</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>220</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>49</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>184</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>163</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>194</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>242</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>53</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>190</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>167</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>201</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>255</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>89</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>176</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>157</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>185</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>229</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>49</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>187</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>163</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>198</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>252</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v/>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>51</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>199</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>173</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>211</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>271</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v/>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>54</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>206</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>178</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>218</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>283</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v/>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>92</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>198</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>173</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>209</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>267</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v/>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>49</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>190</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>165</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>201</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>260</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v/>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>50</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>196</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>168</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>208</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>273</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v/>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>52</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>190</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>164</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>201</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>261</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
         <v>151</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="E3" t="n">
         <v>174</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="E4" t="n">
         <v>182</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="E5" t="n">
         <v>168</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="E6" t="n">
         <v>181</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="E7" t="n">
         <v>170</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="E8" t="n">
         <v>184</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="E9" t="n">
         <v>190</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="E10" t="n">
         <v>176</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="E11" t="n">
         <v>187</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E12" t="n">
         <v>199</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="E13" t="n">
         <v>206</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="E14" t="n">
         <v>198</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="E15" t="n">
         <v>190</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="E16" t="n">
         <v>196</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="E17" t="n">
         <v>190</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>2892</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>1381</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>668</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
         <v>151</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v>174</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
         <v>182</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
         <v>168</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
         <v>181</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
         <v>170</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="E8" t="n">
         <v>184</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="E9" t="n">
         <v>190</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="E10" t="n">
         <v>176</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="E11" t="n">
         <v>187</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="E12" t="n">
         <v>199</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="E13" t="n">
         <v>206</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
         <v>198</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="E15" t="n">
         <v>190</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="E16" t="n">
         <v>196</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="E17" t="n">
         <v>190</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2024-12-29</t>
+          <t>2024-09-08 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>711 units</t>
+          <t>838 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>1396</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>656</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>320</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E2" t="n">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="F2" t="n">
-        <v>145</v>
+        <v>273</v>
       </c>
       <c r="G2" t="n">
-        <v>156</v>
+        <v>299</v>
       </c>
       <c r="H2" t="n">
-        <v>173</v>
+        <v>338</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E3" t="n">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="F3" t="n">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="G3" t="n">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="H3" t="n">
-        <v>213</v>
+        <v>361</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E4" t="n">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="F4" t="n">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="G4" t="n">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="H4" t="n">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E5" t="n">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="F5" t="n">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="G5" t="n">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="H5" t="n">
-        <v>213</v>
+        <v>330</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E6" t="n">
-        <v>181</v>
+        <v>270</v>
       </c>
       <c r="F6" t="n">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="G6" t="n">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="H6" t="n">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E7" t="n">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="F7" t="n">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="G7" t="n">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="H7" t="n">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="F8" t="n">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="G8" t="n">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="H8" t="n">
-        <v>242</v>
+        <v>389</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E9" t="n">
-        <v>190</v>
+        <v>302</v>
       </c>
       <c r="F9" t="n">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="G9" t="n">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="H9" t="n">
-        <v>255</v>
+        <v>405</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="F10" t="n">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="G10" t="n">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="H10" t="n">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E11" t="n">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="F11" t="n">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="G11" t="n">
-        <v>198</v>
+        <v>321</v>
       </c>
       <c r="H11" t="n">
-        <v>252</v>
+        <v>413</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E12" t="n">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c r="F12" t="n">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="G12" t="n">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="H12" t="n">
-        <v>271</v>
+        <v>431</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="E13" t="n">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="F13" t="n">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="G13" t="n">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="H13" t="n">
-        <v>283</v>
+        <v>398</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E14" t="n">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="F14" t="n">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="G14" t="n">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="H14" t="n">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="E15" t="n">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="F15" t="n">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="G15" t="n">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="H15" t="n">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E16" t="n">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="F16" t="n">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="G16" t="n">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="H16" t="n">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E17" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="F17" t="n">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="G17" t="n">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="H17" t="n">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2025-01-05</t>
+          <t>2024-09-08 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>838 units</t>
+          <t>1087 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>2096</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>1048</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>525</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E2" t="n">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="F2" t="n">
         <v>273</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E3" t="n">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="F3" t="n">
         <v>274</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E4" t="n">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="F4" t="n">
         <v>259</v>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E5" t="n">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="F5" t="n">
         <v>241</v>
@@ -654,7 +654,7 @@
         <v>129</v>
       </c>
       <c r="E6" t="n">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="F6" t="n">
         <v>246</v>
@@ -694,7 +694,7 @@
         <v>126</v>
       </c>
       <c r="E7" t="n">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="F7" t="n">
         <v>233</v>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" t="n">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="F8" t="n">
         <v>261</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" t="n">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="F9" t="n">
         <v>266</v>
@@ -814,7 +814,7 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="F10" t="n">
         <v>242</v>
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E11" t="n">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="F11" t="n">
         <v>264</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E12" t="n">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="F12" t="n">
         <v>272</v>
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E13" t="n">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="F13" t="n">
         <v>250</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" t="n">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="F14" t="n">
         <v>248</v>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E15" t="n">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="F15" t="n">
         <v>228</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E16" t="n">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="F16" t="n">
         <v>234</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E17" t="n">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="F17" t="n">
         <v>230</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2078</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>1055</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>536</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
         <v>241</v>
@@ -510,8 +510,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E3" t="n">
         <v>235</v>
@@ -550,8 +550,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E4" t="n">
         <v>220</v>
@@ -590,8 +590,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E5" t="n">
         <v>204</v>
@@ -630,8 +630,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E6" t="n">
         <v>207</v>
@@ -670,8 +670,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E7" t="n">
         <v>195</v>
@@ -710,8 +710,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E8" t="n">
         <v>216</v>
@@ -750,8 +750,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E9" t="n">
         <v>219</v>
@@ -790,8 +790,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E10" t="n">
         <v>202</v>
@@ -830,8 +830,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E11" t="n">
         <v>216</v>
@@ -870,8 +870,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E12" t="n">
         <v>223</v>
@@ -910,8 +910,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" t="n">
         <v>205</v>
@@ -950,8 +950,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" t="n">
         <v>205</v>
@@ -990,8 +990,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E15" t="n">
         <v>187</v>
@@ -1030,8 +1030,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E16" t="n">
         <v>191</v>
@@ -1070,8 +1070,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E17" t="n">
         <v>188</v>
@@ -1110,8 +1110,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2078</t>
+          <t>2057</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>976</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>486</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="E2" t="n">
         <v>241</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E3" t="n">
         <v>235</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="E4" t="n">
         <v>220</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
         <v>204</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E6" t="n">
         <v>207</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="E7" t="n">
         <v>195</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E8" t="n">
         <v>216</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E9" t="n">
         <v>219</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E10" t="n">
         <v>202</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E11" t="n">
         <v>216</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E12" t="n">
         <v>223</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E13" t="n">
         <v>205</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="E14" t="n">
         <v>205</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="E15" t="n">
         <v>187</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E16" t="n">
         <v>191</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="E17" t="n">
         <v>188</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2025-01-12</t>
+          <t>2024-09-08 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>235</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1087 units</t>
+          <t>1452 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>2507</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>1243</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>627</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>164</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>145</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" t="n">
         <v>205</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1452 units</t>
+          <t>1451 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>2505</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1243</t>
+          <t>1242</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>626</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E2" t="n">
         <v>241</v>
@@ -510,8 +510,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E3" t="n">
         <v>235</v>
@@ -550,8 +550,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="J3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E4" t="n">
         <v>220</v>
@@ -590,8 +590,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="J4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E5" t="n">
         <v>204</v>
@@ -630,8 +630,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E6" t="n">
         <v>207</v>
@@ -670,8 +670,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="J6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E7" t="n">
         <v>195</v>
@@ -710,8 +710,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="J7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E8" t="n">
         <v>216</v>
@@ -750,8 +750,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="J8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -790,8 +790,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
+      <c r="J9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -830,8 +830,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
+      <c r="J10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -870,8 +870,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E12" t="n">
         <v>223</v>
@@ -910,8 +910,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
+      <c r="J12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E13" t="n">
         <v>205</v>
@@ -950,8 +950,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="J13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -990,8 +990,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1030,8 +1030,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="J15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1070,8 +1070,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="J16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1110,8 +1110,8 @@
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="J17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2576</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>1298</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>652</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>166</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,27 +491,27 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="E2" t="n">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="F2" t="n">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="G2" t="n">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="H2" t="n">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,27 +531,27 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E3" t="n">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="F3" t="n">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="G3" t="n">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="H3" t="n">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,27 +571,27 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E4" t="n">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="F4" t="n">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="G4" t="n">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="H4" t="n">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,27 +611,27 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5" t="n">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F5" t="n">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G5" t="n">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="H5" t="n">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,27 +651,27 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E6" t="n">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="F6" t="n">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G6" t="n">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="H6" t="n">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,27 +691,27 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E7" t="n">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="F7" t="n">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G7" t="n">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H7" t="n">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,27 +731,27 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="E8" t="n">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="F8" t="n">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="G8" t="n">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="H8" t="n">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,27 +771,27 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="E9" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="F9" t="n">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="G9" t="n">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="H9" t="n">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,27 +811,27 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E10" t="n">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F10" t="n">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G10" t="n">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="H10" t="n">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,27 +851,27 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E11" t="n">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F11" t="n">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G11" t="n">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="H11" t="n">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,27 +891,27 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E12" t="n">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="F12" t="n">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="G12" t="n">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="H12" t="n">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,27 +931,27 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E13" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="F13" t="n">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G13" t="n">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="H13" t="n">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,27 +971,27 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E14" t="n">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="F14" t="n">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G14" t="n">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="H14" t="n">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,27 +1011,27 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E15" t="n">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F15" t="n">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G15" t="n">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="H15" t="n">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,27 +1051,27 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E16" t="n">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F16" t="n">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="G16" t="n">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="H16" t="n">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,27 +1091,27 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="E17" t="n">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F17" t="n">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G17" t="n">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="H17" t="n">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2025-01-19</t>
+          <t>2024-09-08 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>264</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1451 units</t>
+          <t>1614 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2794</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>1387</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>678</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>186</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVBM73J.xlsx
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E6" t="n">
         <v>240</v>
